--- a/medicine/Psychotrope/Cannabis_à_Djibouti/Cannabis_à_Djibouti.xlsx
+++ b/medicine/Psychotrope/Cannabis_à_Djibouti/Cannabis_à_Djibouti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cannabis_%C3%A0_Djibouti</t>
+          <t>Cannabis_à_Djibouti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cannabis à Djibouti est illégal avec des sanctions pour la production, la vente et la possession de marijuana à des fins médicinales ou récréatives. Les contrevenants peuvent être condamnés à une amende ou à une peine pouvant aller jusqu'à cinq ans de prison. La consommation de cannabis à Djibouti est faible en raison des mauvaises conditions de culture et de la préférence locale pour le khat légal[1],[2],[3].
-Le port de Djibouti est utilisé comme centre du trafic de drogue. Le cannabis de l'Asie de l'Ouest et du Sud-Est est transféré via Djibouti vers d'autres pays d'Afrique, du Moyen-Orient et d'Europe[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cannabis à Djibouti est illégal avec des sanctions pour la production, la vente et la possession de marijuana à des fins médicinales ou récréatives. Les contrevenants peuvent être condamnés à une amende ou à une peine pouvant aller jusqu'à cinq ans de prison. La consommation de cannabis à Djibouti est faible en raison des mauvaises conditions de culture et de la préférence locale pour le khat légal.
+Le port de Djibouti est utilisé comme centre du trafic de drogue. Le cannabis de l'Asie de l'Ouest et du Sud-Est est transféré via Djibouti vers d'autres pays d'Afrique, du Moyen-Orient et d'Europe,.
 </t>
         </is>
       </c>
